--- a/Code/Results/Cases/Case_3_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01015308079795</v>
+        <v>1.035011844290189</v>
       </c>
       <c r="D2">
-        <v>1.029153145060582</v>
+        <v>1.043203085106238</v>
       </c>
       <c r="E2">
-        <v>1.015204660779698</v>
+        <v>1.034121493104194</v>
       </c>
       <c r="F2">
-        <v>1.034932565767246</v>
+        <v>1.053983195878501</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047525485011709</v>
+        <v>1.039900491938862</v>
       </c>
       <c r="J2">
-        <v>1.03203429847498</v>
+        <v>1.040127949227614</v>
       </c>
       <c r="K2">
-        <v>1.040220738402753</v>
+        <v>1.045977613606845</v>
       </c>
       <c r="L2">
-        <v>1.026456157857154</v>
+        <v>1.036921876914136</v>
       </c>
       <c r="M2">
-        <v>1.045925775896377</v>
+        <v>1.056727660365422</v>
       </c>
       <c r="N2">
-        <v>1.033499905554808</v>
+        <v>1.041605050219861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013994768725363</v>
+        <v>1.035833716047721</v>
       </c>
       <c r="D3">
-        <v>1.032010092599701</v>
+        <v>1.043841260080336</v>
       </c>
       <c r="E3">
-        <v>1.018233948827351</v>
+        <v>1.034816962746946</v>
       </c>
       <c r="F3">
-        <v>1.038436521367902</v>
+        <v>1.0547880469562</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048608330102649</v>
+        <v>1.040090341277645</v>
       </c>
       <c r="J3">
-        <v>1.034111058824024</v>
+        <v>1.040593836621374</v>
       </c>
       <c r="K3">
-        <v>1.042249147266249</v>
+        <v>1.04642722799138</v>
       </c>
       <c r="L3">
-        <v>1.028638719920022</v>
+        <v>1.037426771730944</v>
       </c>
       <c r="M3">
-        <v>1.048600131415741</v>
+        <v>1.057345685614662</v>
       </c>
       <c r="N3">
-        <v>1.035579615141751</v>
+        <v>1.042071599227158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016436456478071</v>
+        <v>1.03636623632295</v>
       </c>
       <c r="D4">
-        <v>1.033829209689482</v>
+        <v>1.04425484182566</v>
       </c>
       <c r="E4">
-        <v>1.020164992582674</v>
+        <v>1.035267970143089</v>
       </c>
       <c r="F4">
-        <v>1.040668823382324</v>
+        <v>1.055309874068345</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049288986702934</v>
+        <v>1.040212390554288</v>
       </c>
       <c r="J4">
-        <v>1.035428860319414</v>
+        <v>1.040895339892352</v>
       </c>
       <c r="K4">
-        <v>1.043535795409634</v>
+        <v>1.046718108567979</v>
       </c>
       <c r="L4">
-        <v>1.030025986388971</v>
+        <v>1.03775378748014</v>
       </c>
       <c r="M4">
-        <v>1.050299990745736</v>
+        <v>1.057745967264558</v>
       </c>
       <c r="N4">
-        <v>1.036899288066418</v>
+        <v>1.042373530667363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017452692045245</v>
+        <v>1.036590277093489</v>
       </c>
       <c r="D5">
-        <v>1.03458708410366</v>
+        <v>1.044428862922902</v>
       </c>
       <c r="E5">
-        <v>1.02097003063529</v>
+        <v>1.035457809250725</v>
       </c>
       <c r="F5">
-        <v>1.041599142569301</v>
+        <v>1.055529495814483</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049570430049608</v>
+        <v>1.040263508764662</v>
       </c>
       <c r="J5">
-        <v>1.035976792244495</v>
+        <v>1.041022100831209</v>
       </c>
       <c r="K5">
-        <v>1.044070654408346</v>
+        <v>1.046840381435254</v>
       </c>
       <c r="L5">
-        <v>1.030603360826904</v>
+        <v>1.037891338888606</v>
       </c>
       <c r="M5">
-        <v>1.051007464926448</v>
+        <v>1.057914334445614</v>
       </c>
       <c r="N5">
-        <v>1.037447998117681</v>
+        <v>1.042500471621293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017622730395032</v>
+        <v>1.036627904398419</v>
       </c>
       <c r="D6">
-        <v>1.034713936196276</v>
+        <v>1.044458090651095</v>
       </c>
       <c r="E6">
-        <v>1.021104808463174</v>
+        <v>1.035489697832655</v>
       </c>
       <c r="F6">
-        <v>1.041754876593443</v>
+        <v>1.055566385615659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049617412211393</v>
+        <v>1.04027208049693</v>
       </c>
       <c r="J6">
-        <v>1.036068440702308</v>
+        <v>1.041043385037756</v>
       </c>
       <c r="K6">
-        <v>1.044160109043636</v>
+        <v>1.046860910766699</v>
       </c>
       <c r="L6">
-        <v>1.03069996682763</v>
+        <v>1.037914438672299</v>
       </c>
       <c r="M6">
-        <v>1.051125839130528</v>
+        <v>1.057942609192121</v>
       </c>
       <c r="N6">
-        <v>1.037539776726816</v>
+        <v>1.042521786053855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016450075330989</v>
+        <v>1.036369229303861</v>
       </c>
       <c r="D7">
-        <v>1.033839363247617</v>
+        <v>1.04425716651178</v>
       </c>
       <c r="E7">
-        <v>1.020175775898079</v>
+        <v>1.035270505859181</v>
       </c>
       <c r="F7">
-        <v>1.040681286032228</v>
+        <v>1.055312807702312</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049292765735332</v>
+        <v>1.040213074350959</v>
       </c>
       <c r="J7">
-        <v>1.035436205471996</v>
+        <v>1.040897033644659</v>
       </c>
       <c r="K7">
-        <v>1.043542965797289</v>
+        <v>1.046719742438086</v>
       </c>
       <c r="L7">
-        <v>1.030033724014191</v>
+        <v>1.037755625159873</v>
       </c>
       <c r="M7">
-        <v>1.050309471890562</v>
+        <v>1.057748216648398</v>
       </c>
       <c r="N7">
-        <v>1.036906643649959</v>
+        <v>1.042375226824993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011460732380463</v>
+        <v>1.035289450743289</v>
       </c>
       <c r="D8">
-        <v>1.030124889372466</v>
+        <v>1.043418625725016</v>
       </c>
       <c r="E8">
-        <v>1.016234570244847</v>
+        <v>1.034356323779609</v>
       </c>
       <c r="F8">
-        <v>1.036124134532832</v>
+        <v>1.054254983594799</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047895635913255</v>
+        <v>1.039964816761568</v>
       </c>
       <c r="J8">
-        <v>1.03274162721066</v>
+        <v>1.040285388359162</v>
       </c>
       <c r="K8">
-        <v>1.040911694009893</v>
+        <v>1.046129572428346</v>
       </c>
       <c r="L8">
-        <v>1.027199034222886</v>
+        <v>1.037092442387944</v>
       </c>
       <c r="M8">
-        <v>1.046836042620756</v>
+        <v>1.056936445595698</v>
       </c>
       <c r="N8">
-        <v>1.034208238778419</v>
+        <v>1.041762712933034</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002315861424799</v>
+        <v>1.033392291356945</v>
       </c>
       <c r="D9">
-        <v>1.023344776627629</v>
+        <v>1.04194599224754</v>
       </c>
       <c r="E9">
-        <v>1.009057545918713</v>
+        <v>1.032753099788736</v>
       </c>
       <c r="F9">
-        <v>1.027814769364854</v>
+        <v>1.052398978025445</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045276298466818</v>
+        <v>1.039521292718492</v>
       </c>
       <c r="J9">
-        <v>1.027787104870075</v>
+        <v>1.039207978948989</v>
       </c>
       <c r="K9">
-        <v>1.036070124401344</v>
+        <v>1.045089294659253</v>
       </c>
       <c r="L9">
-        <v>1.022005360362487</v>
+        <v>1.035926305879328</v>
       </c>
       <c r="M9">
-        <v>1.040472133150771</v>
+        <v>1.055508972126747</v>
       </c>
       <c r="N9">
-        <v>1.02924668044782</v>
+        <v>1.040683773477917</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9959599730922386</v>
+        <v>1.032131353766648</v>
       </c>
       <c r="D10">
-        <v>1.018654203259306</v>
+        <v>1.04096769734228</v>
       </c>
       <c r="E10">
-        <v>1.004103356735553</v>
+        <v>1.031689561866119</v>
       </c>
       <c r="F10">
-        <v>1.022071320627804</v>
+        <v>1.051167153957617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043418185983631</v>
+        <v>1.039221579250554</v>
       </c>
       <c r="J10">
-        <v>1.024334803205084</v>
+        <v>1.038490045845459</v>
       </c>
       <c r="K10">
-        <v>1.032694625129666</v>
+        <v>1.0443956403104</v>
       </c>
       <c r="L10">
-        <v>1.018398916944891</v>
+        <v>1.035150632152065</v>
       </c>
       <c r="M10">
-        <v>1.036053186450808</v>
+        <v>1.054559423169078</v>
       </c>
       <c r="N10">
-        <v>1.025789476118479</v>
+        <v>1.039964820827033</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.993141071145074</v>
+        <v>1.031586285694702</v>
       </c>
       <c r="D11">
-        <v>1.016579691556889</v>
+        <v>1.040544929163011</v>
       </c>
       <c r="E11">
-        <v>1.001914750546112</v>
+        <v>1.031230314120861</v>
       </c>
       <c r="F11">
-        <v>1.019532145616493</v>
+        <v>1.050635094344496</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042585624414184</v>
+        <v>1.039090853534219</v>
       </c>
       <c r="J11">
-        <v>1.022801999826729</v>
+        <v>1.038179270226948</v>
       </c>
       <c r="K11">
-        <v>1.031195569002283</v>
+        <v>1.044095265282069</v>
       </c>
       <c r="L11">
-        <v>1.016800647588895</v>
+        <v>1.034815190228491</v>
       </c>
       <c r="M11">
-        <v>1.034094880999886</v>
+        <v>1.05414877780434</v>
       </c>
       <c r="N11">
-        <v>1.024254495983512</v>
+        <v>1.039653603871497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9920835011254143</v>
+        <v>1.031383964083542</v>
       </c>
       <c r="D12">
-        <v>1.015802324545372</v>
+        <v>1.040388022342949</v>
       </c>
       <c r="E12">
-        <v>1.001094995402206</v>
+        <v>1.031059922001665</v>
       </c>
       <c r="F12">
-        <v>1.018580789825577</v>
+        <v>1.050437665413808</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042272038602335</v>
+        <v>1.039042154546817</v>
       </c>
       <c r="J12">
-        <v>1.022226721817326</v>
+        <v>1.038063849821582</v>
       </c>
       <c r="K12">
-        <v>1.03063291241078</v>
+        <v>1.043983691287947</v>
       </c>
       <c r="L12">
-        <v>1.016201247053488</v>
+        <v>1.034690658223719</v>
       </c>
       <c r="M12">
-        <v>1.03336046383803</v>
+        <v>1.053996325055291</v>
       </c>
       <c r="N12">
-        <v>1.02367840101335</v>
+        <v>1.039538019555916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9923108367473877</v>
+        <v>1.031427356349412</v>
       </c>
       <c r="D13">
-        <v>1.015969384685145</v>
+        <v>1.040421673560811</v>
       </c>
       <c r="E13">
-        <v>1.001271148590314</v>
+        <v>1.031096462927211</v>
       </c>
       <c r="F13">
-        <v>1.018785235409338</v>
+        <v>1.050480005428076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042339502188509</v>
+        <v>1.039052607042</v>
       </c>
       <c r="J13">
-        <v>1.02235039288687</v>
+        <v>1.038088607167385</v>
       </c>
       <c r="K13">
-        <v>1.030753872035257</v>
+        <v>1.04400762432654</v>
       </c>
       <c r="L13">
-        <v>1.016330083645691</v>
+        <v>1.034717367748464</v>
       </c>
       <c r="M13">
-        <v>1.033518320831446</v>
+        <v>1.054029023074188</v>
       </c>
       <c r="N13">
-        <v>1.023802247709999</v>
+        <v>1.039562812059991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9930538692017928</v>
+        <v>1.031569558841743</v>
       </c>
       <c r="D14">
-        <v>1.016515574515339</v>
+        <v>1.040531956571972</v>
       </c>
       <c r="E14">
-        <v>1.001847129956303</v>
+        <v>1.03121622550787</v>
       </c>
       <c r="F14">
-        <v>1.01945367546026</v>
+        <v>1.050618770680561</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042559792535128</v>
+        <v>1.039086830945645</v>
       </c>
       <c r="J14">
-        <v>1.022754569427563</v>
+        <v>1.038169729216294</v>
       </c>
       <c r="K14">
-        <v>1.03114918006075</v>
+        <v>1.044086042560107</v>
       </c>
       <c r="L14">
-        <v>1.016751219232537</v>
+        <v>1.034804895017998</v>
       </c>
       <c r="M14">
-        <v>1.03403431859405</v>
+        <v>1.054136174386233</v>
       </c>
       <c r="N14">
-        <v>1.024206998227739</v>
+        <v>1.039644049311514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9935102694451665</v>
+        <v>1.031657193219898</v>
       </c>
       <c r="D15">
-        <v>1.016851190538866</v>
+        <v>1.040599922607236</v>
       </c>
       <c r="E15">
-        <v>1.00220109991768</v>
+        <v>1.031290040811635</v>
       </c>
       <c r="F15">
-        <v>1.019864427070572</v>
+        <v>1.050704295323355</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042694942175655</v>
+        <v>1.039107898676905</v>
       </c>
       <c r="J15">
-        <v>1.023002803586069</v>
+        <v>1.038219713281865</v>
       </c>
       <c r="K15">
-        <v>1.03139196183922</v>
+        <v>1.044134358486617</v>
       </c>
       <c r="L15">
-        <v>1.017009928262558</v>
+        <v>1.034858832255248</v>
       </c>
       <c r="M15">
-        <v>1.034351303807958</v>
+        <v>1.054202204396542</v>
       </c>
       <c r="N15">
-        <v>1.024455584907223</v>
+        <v>1.039694104360191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9961456078975736</v>
+        <v>1.032167547806242</v>
       </c>
       <c r="D16">
-        <v>1.01879094324093</v>
+        <v>1.040995772934236</v>
       </c>
       <c r="E16">
-        <v>1.00424766853524</v>
+        <v>1.031720067576331</v>
       </c>
       <c r="F16">
-        <v>1.022238707809727</v>
+        <v>1.051202493170377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043472839716965</v>
+        <v>1.039230235181565</v>
       </c>
       <c r="J16">
-        <v>1.024435711966476</v>
+        <v>1.038510673098774</v>
       </c>
       <c r="K16">
-        <v>1.032793305585536</v>
+        <v>1.044415574948492</v>
       </c>
       <c r="L16">
-        <v>1.018504197599077</v>
+        <v>1.03517290351124</v>
       </c>
       <c r="M16">
-        <v>1.036182184294261</v>
+        <v>1.054586687362872</v>
       </c>
       <c r="N16">
-        <v>1.025890528181887</v>
+        <v>1.039985477373413</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9977804860529121</v>
+        <v>1.032487928990785</v>
       </c>
       <c r="D17">
-        <v>1.019995875750106</v>
+        <v>1.041244305618708</v>
       </c>
       <c r="E17">
-        <v>1.005519606772052</v>
+        <v>1.031990153722888</v>
       </c>
       <c r="F17">
-        <v>1.023713810335577</v>
+        <v>1.051515356656364</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043953211487612</v>
+        <v>1.039306720420974</v>
       </c>
       <c r="J17">
-        <v>1.025324224916576</v>
+        <v>1.038693210666092</v>
       </c>
       <c r="K17">
-        <v>1.033662158886224</v>
+        <v>1.044591970734285</v>
       </c>
       <c r="L17">
-        <v>1.019431544513764</v>
+        <v>1.035370028252487</v>
       </c>
       <c r="M17">
-        <v>1.037318444994013</v>
+        <v>1.054828002653222</v>
       </c>
       <c r="N17">
-        <v>1.02678030292229</v>
+        <v>1.040168274165014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9987276748559448</v>
+        <v>1.03267489116276</v>
       </c>
       <c r="D18">
-        <v>1.020694518066449</v>
+        <v>1.041389351445764</v>
       </c>
       <c r="E18">
-        <v>1.006257338646065</v>
+        <v>1.032147812923175</v>
       </c>
       <c r="F18">
-        <v>1.024569198241029</v>
+        <v>1.051697972656831</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044230713119741</v>
+        <v>1.039351241466298</v>
       </c>
       <c r="J18">
-        <v>1.025838835424792</v>
+        <v>1.038799690734585</v>
       </c>
       <c r="K18">
-        <v>1.034165348778856</v>
+        <v>1.044694857570593</v>
       </c>
       <c r="L18">
-        <v>1.019968929387963</v>
+        <v>1.035485049161332</v>
       </c>
       <c r="M18">
-        <v>1.037976896356964</v>
+        <v>1.054968807409228</v>
       </c>
       <c r="N18">
-        <v>1.027295644236454</v>
+        <v>1.040274905447418</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9990495688170319</v>
+        <v>1.032738655515528</v>
       </c>
       <c r="D19">
-        <v>1.020932036984933</v>
+        <v>1.041438821991282</v>
       </c>
       <c r="E19">
-        <v>1.006508187634517</v>
+        <v>1.032201591358165</v>
       </c>
       <c r="F19">
-        <v>1.024860023111392</v>
+        <v>1.051760261643708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044324881397887</v>
+        <v>1.039366406448967</v>
       </c>
       <c r="J19">
-        <v>1.026013692912022</v>
+        <v>1.038835999170644</v>
       </c>
       <c r="K19">
-        <v>1.034336319660668</v>
+        <v>1.044729938968431</v>
       </c>
       <c r="L19">
-        <v>1.02015157316997</v>
+        <v>1.035524275293253</v>
       </c>
       <c r="M19">
-        <v>1.038200688228027</v>
+        <v>1.055016826556838</v>
       </c>
       <c r="N19">
-        <v>1.027470750041373</v>
+        <v>1.040311265445621</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9976057452466005</v>
+        <v>1.032453545877587</v>
       </c>
       <c r="D20">
-        <v>1.019867031590666</v>
+        <v>1.041217632030356</v>
       </c>
       <c r="E20">
-        <v>1.005383573000669</v>
+        <v>1.031961163348436</v>
       </c>
       <c r="F20">
-        <v>1.023556066911723</v>
+        <v>1.051481776107906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043901951416933</v>
+        <v>1.039298523737505</v>
       </c>
       <c r="J20">
-        <v>1.025229274412008</v>
+        <v>1.038673625172626</v>
       </c>
       <c r="K20">
-        <v>1.033569312776929</v>
+        <v>1.044573045316298</v>
       </c>
       <c r="L20">
-        <v>1.019332414735859</v>
+        <v>1.035348874342344</v>
       </c>
       <c r="M20">
-        <v>1.037196982738446</v>
+        <v>1.054802106660209</v>
       </c>
       <c r="N20">
-        <v>1.026685217577115</v>
+        <v>1.040148660857901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9928353585821011</v>
+        <v>1.03152767984707</v>
       </c>
       <c r="D21">
-        <v>1.016354925216772</v>
+        <v>1.040499477422255</v>
       </c>
       <c r="E21">
-        <v>1.001677708159227</v>
+        <v>1.031180953071021</v>
       </c>
       <c r="F21">
-        <v>1.019257065578198</v>
+        <v>1.050577902187322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042495043283008</v>
+        <v>1.039076756762746</v>
       </c>
       <c r="J21">
-        <v>1.022635715003842</v>
+        <v>1.038145840356168</v>
       </c>
       <c r="K21">
-        <v>1.03103293471093</v>
+        <v>1.044062950370536</v>
       </c>
       <c r="L21">
-        <v>1.016627365403868</v>
+        <v>1.03477911858326</v>
       </c>
       <c r="M21">
-        <v>1.03388256604494</v>
+        <v>1.054104618794422</v>
       </c>
       <c r="N21">
-        <v>1.024087975017104</v>
+        <v>1.039620126526466</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9897749971429016</v>
+        <v>1.030946367447091</v>
       </c>
       <c r="D22">
-        <v>1.014107230941623</v>
+        <v>1.040048687238867</v>
       </c>
       <c r="E22">
-        <v>0.9993081331372071</v>
+        <v>1.030691521170493</v>
       </c>
       <c r="F22">
-        <v>1.016506524155926</v>
+        <v>1.05001076880516</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041585310995384</v>
+        <v>1.038936503981104</v>
       </c>
       <c r="J22">
-        <v>1.020970629800967</v>
+        <v>1.037814091422051</v>
       </c>
       <c r="K22">
-        <v>1.029404307091343</v>
+        <v>1.043742226398894</v>
       </c>
       <c r="L22">
-        <v>1.014893308516258</v>
+        <v>1.03442127346107</v>
       </c>
       <c r="M22">
-        <v>1.031757925630462</v>
+        <v>1.053666539723375</v>
       </c>
       <c r="N22">
-        <v>1.022420525202252</v>
+        <v>1.03928790647081</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9914033032440953</v>
+        <v>1.031254454174401</v>
       </c>
       <c r="D23">
-        <v>1.01530261418214</v>
+        <v>1.040287588662741</v>
       </c>
       <c r="E23">
-        <v>1.000568138763831</v>
+        <v>1.030950871723801</v>
       </c>
       <c r="F23">
-        <v>1.017969269906785</v>
+        <v>1.050311305514454</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042070007125289</v>
+        <v>1.039010932019129</v>
       </c>
       <c r="J23">
-        <v>1.021856664100495</v>
+        <v>1.037989948795667</v>
       </c>
       <c r="K23">
-        <v>1.030270962273311</v>
+        <v>1.043912248447947</v>
       </c>
       <c r="L23">
-        <v>1.0158157983575</v>
+        <v>1.034610937142115</v>
       </c>
       <c r="M23">
-        <v>1.0328881942859</v>
+        <v>1.053898729609898</v>
       </c>
       <c r="N23">
-        <v>1.023307817772115</v>
+        <v>1.039464013582068</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9976847228638117</v>
+        <v>1.032469081850903</v>
       </c>
       <c r="D24">
-        <v>1.019925263601415</v>
+        <v>1.041229684427016</v>
       </c>
       <c r="E24">
-        <v>1.005445053667115</v>
+        <v>1.03197426247247</v>
       </c>
       <c r="F24">
-        <v>1.023627359846556</v>
+        <v>1.051496949317011</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043925121943331</v>
+        <v>1.039302227748762</v>
       </c>
       <c r="J24">
-        <v>1.025272189702975</v>
+        <v>1.038682474986462</v>
       </c>
       <c r="K24">
-        <v>1.033611277039394</v>
+        <v>1.044581596903921</v>
       </c>
       <c r="L24">
-        <v>1.019377218080155</v>
+        <v>1.035358432756107</v>
       </c>
       <c r="M24">
-        <v>1.037251879604105</v>
+        <v>1.054813807791654</v>
       </c>
       <c r="N24">
-        <v>1.026728193812717</v>
+        <v>1.040157523239487</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004724051867249</v>
+        <v>1.03388208422228</v>
       </c>
       <c r="D25">
-        <v>1.025126681262108</v>
+        <v>1.04232610142354</v>
       </c>
       <c r="E25">
-        <v>1.010941828264478</v>
+        <v>1.033166649616652</v>
       </c>
       <c r="F25">
-        <v>1.029997633154249</v>
+        <v>1.052877837308705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045972717490136</v>
+        <v>1.039636668088423</v>
       </c>
       <c r="J25">
-        <v>1.029093472055676</v>
+        <v>1.039486461004465</v>
       </c>
       <c r="K25">
-        <v>1.037347069325753</v>
+        <v>1.045358261285654</v>
       </c>
       <c r="L25">
-        <v>1.023372628253901</v>
+        <v>1.036227477834607</v>
       </c>
       <c r="M25">
-        <v>1.042147461235296</v>
+        <v>1.055877645603506</v>
       </c>
       <c r="N25">
-        <v>1.030554902824666</v>
+        <v>1.040962651009855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.035011844290189</v>
+        <v>1.010153080797949</v>
       </c>
       <c r="D2">
-        <v>1.043203085106238</v>
+        <v>1.029153145060581</v>
       </c>
       <c r="E2">
-        <v>1.034121493104194</v>
+        <v>1.015204660779697</v>
       </c>
       <c r="F2">
-        <v>1.053983195878501</v>
+        <v>1.034932565767245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039900491938862</v>
+        <v>1.047525485011708</v>
       </c>
       <c r="J2">
-        <v>1.040127949227614</v>
+        <v>1.032034298474979</v>
       </c>
       <c r="K2">
-        <v>1.045977613606845</v>
+        <v>1.040220738402752</v>
       </c>
       <c r="L2">
-        <v>1.036921876914136</v>
+        <v>1.026456157857154</v>
       </c>
       <c r="M2">
-        <v>1.056727660365422</v>
+        <v>1.045925775896377</v>
       </c>
       <c r="N2">
-        <v>1.041605050219861</v>
+        <v>1.033499905554807</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035833716047721</v>
+        <v>1.013994768725363</v>
       </c>
       <c r="D3">
-        <v>1.043841260080336</v>
+        <v>1.0320100925997</v>
       </c>
       <c r="E3">
-        <v>1.034816962746946</v>
+        <v>1.01823394882735</v>
       </c>
       <c r="F3">
-        <v>1.0547880469562</v>
+        <v>1.038436521367901</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040090341277645</v>
+        <v>1.048608330102649</v>
       </c>
       <c r="J3">
-        <v>1.040593836621374</v>
+        <v>1.034111058824023</v>
       </c>
       <c r="K3">
-        <v>1.04642722799138</v>
+        <v>1.042249147266248</v>
       </c>
       <c r="L3">
-        <v>1.037426771730944</v>
+        <v>1.028638719920022</v>
       </c>
       <c r="M3">
-        <v>1.057345685614662</v>
+        <v>1.04860013141574</v>
       </c>
       <c r="N3">
-        <v>1.042071599227158</v>
+        <v>1.03557961514175</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03636623632295</v>
+        <v>1.016436456478071</v>
       </c>
       <c r="D4">
-        <v>1.04425484182566</v>
+        <v>1.033829209689481</v>
       </c>
       <c r="E4">
-        <v>1.035267970143089</v>
+        <v>1.020164992582673</v>
       </c>
       <c r="F4">
-        <v>1.055309874068345</v>
+        <v>1.040668823382323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040212390554288</v>
+        <v>1.049288986702934</v>
       </c>
       <c r="J4">
-        <v>1.040895339892352</v>
+        <v>1.035428860319413</v>
       </c>
       <c r="K4">
-        <v>1.046718108567979</v>
+        <v>1.043535795409633</v>
       </c>
       <c r="L4">
-        <v>1.03775378748014</v>
+        <v>1.03002598638897</v>
       </c>
       <c r="M4">
-        <v>1.057745967264558</v>
+        <v>1.050299990745735</v>
       </c>
       <c r="N4">
-        <v>1.042373530667363</v>
+        <v>1.036899288066417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036590277093489</v>
+        <v>1.017452692045245</v>
       </c>
       <c r="D5">
-        <v>1.044428862922902</v>
+        <v>1.03458708410366</v>
       </c>
       <c r="E5">
-        <v>1.035457809250725</v>
+        <v>1.02097003063529</v>
       </c>
       <c r="F5">
-        <v>1.055529495814483</v>
+        <v>1.041599142569301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040263508764662</v>
+        <v>1.049570430049608</v>
       </c>
       <c r="J5">
-        <v>1.041022100831209</v>
+        <v>1.035976792244495</v>
       </c>
       <c r="K5">
-        <v>1.046840381435254</v>
+        <v>1.044070654408346</v>
       </c>
       <c r="L5">
-        <v>1.037891338888606</v>
+        <v>1.030603360826904</v>
       </c>
       <c r="M5">
-        <v>1.057914334445614</v>
+        <v>1.051007464926448</v>
       </c>
       <c r="N5">
-        <v>1.042500471621293</v>
+        <v>1.037447998117681</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036627904398419</v>
+        <v>1.017622730395032</v>
       </c>
       <c r="D6">
-        <v>1.044458090651095</v>
+        <v>1.034713936196276</v>
       </c>
       <c r="E6">
-        <v>1.035489697832655</v>
+        <v>1.021104808463174</v>
       </c>
       <c r="F6">
-        <v>1.055566385615659</v>
+        <v>1.041754876593443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04027208049693</v>
+        <v>1.049617412211393</v>
       </c>
       <c r="J6">
-        <v>1.041043385037756</v>
+        <v>1.036068440702308</v>
       </c>
       <c r="K6">
-        <v>1.046860910766699</v>
+        <v>1.044160109043636</v>
       </c>
       <c r="L6">
-        <v>1.037914438672299</v>
+        <v>1.03069996682763</v>
       </c>
       <c r="M6">
-        <v>1.057942609192121</v>
+        <v>1.051125839130528</v>
       </c>
       <c r="N6">
-        <v>1.042521786053855</v>
+        <v>1.037539776726816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036369229303861</v>
+        <v>1.01645007533099</v>
       </c>
       <c r="D7">
-        <v>1.04425716651178</v>
+        <v>1.033839363247617</v>
       </c>
       <c r="E7">
-        <v>1.035270505859181</v>
+        <v>1.02017577589808</v>
       </c>
       <c r="F7">
-        <v>1.055312807702312</v>
+        <v>1.040681286032228</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040213074350959</v>
+        <v>1.049292765735332</v>
       </c>
       <c r="J7">
-        <v>1.040897033644659</v>
+        <v>1.035436205471997</v>
       </c>
       <c r="K7">
-        <v>1.046719742438086</v>
+        <v>1.04354296579729</v>
       </c>
       <c r="L7">
-        <v>1.037755625159873</v>
+        <v>1.030033724014192</v>
       </c>
       <c r="M7">
-        <v>1.057748216648398</v>
+        <v>1.050309471890562</v>
       </c>
       <c r="N7">
-        <v>1.042375226824993</v>
+        <v>1.03690664364996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035289450743289</v>
+        <v>1.011460732380463</v>
       </c>
       <c r="D8">
-        <v>1.043418625725016</v>
+        <v>1.030124889372465</v>
       </c>
       <c r="E8">
-        <v>1.034356323779609</v>
+        <v>1.016234570244846</v>
       </c>
       <c r="F8">
-        <v>1.054254983594799</v>
+        <v>1.036124134532831</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039964816761568</v>
+        <v>1.047895635913255</v>
       </c>
       <c r="J8">
-        <v>1.040285388359162</v>
+        <v>1.03274162721066</v>
       </c>
       <c r="K8">
-        <v>1.046129572428346</v>
+        <v>1.040911694009892</v>
       </c>
       <c r="L8">
-        <v>1.037092442387944</v>
+        <v>1.027199034222885</v>
       </c>
       <c r="M8">
-        <v>1.056936445595698</v>
+        <v>1.046836042620756</v>
       </c>
       <c r="N8">
-        <v>1.041762712933034</v>
+        <v>1.034208238778419</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033392291356945</v>
+        <v>1.002315861424799</v>
       </c>
       <c r="D9">
-        <v>1.04194599224754</v>
+        <v>1.023344776627629</v>
       </c>
       <c r="E9">
-        <v>1.032753099788736</v>
+        <v>1.009057545918713</v>
       </c>
       <c r="F9">
-        <v>1.052398978025445</v>
+        <v>1.027814769364854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039521292718492</v>
+        <v>1.045276298466818</v>
       </c>
       <c r="J9">
-        <v>1.039207978948989</v>
+        <v>1.027787104870076</v>
       </c>
       <c r="K9">
-        <v>1.045089294659253</v>
+        <v>1.036070124401344</v>
       </c>
       <c r="L9">
-        <v>1.035926305879328</v>
+        <v>1.022005360362486</v>
       </c>
       <c r="M9">
-        <v>1.055508972126747</v>
+        <v>1.040472133150772</v>
       </c>
       <c r="N9">
-        <v>1.040683773477917</v>
+        <v>1.02924668044782</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032131353766648</v>
+        <v>0.9959599730922377</v>
       </c>
       <c r="D10">
-        <v>1.04096769734228</v>
+        <v>1.018654203259305</v>
       </c>
       <c r="E10">
-        <v>1.031689561866119</v>
+        <v>1.004103356735552</v>
       </c>
       <c r="F10">
-        <v>1.051167153957617</v>
+        <v>1.022071320627803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039221579250554</v>
+        <v>1.04341818598363</v>
       </c>
       <c r="J10">
-        <v>1.038490045845459</v>
+        <v>1.024334803205083</v>
       </c>
       <c r="K10">
-        <v>1.0443956403104</v>
+        <v>1.032694625129666</v>
       </c>
       <c r="L10">
-        <v>1.035150632152065</v>
+        <v>1.01839891694489</v>
       </c>
       <c r="M10">
-        <v>1.054559423169078</v>
+        <v>1.036053186450807</v>
       </c>
       <c r="N10">
-        <v>1.039964820827033</v>
+        <v>1.025789476118479</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031586285694702</v>
+        <v>0.9931410711450739</v>
       </c>
       <c r="D11">
-        <v>1.040544929163011</v>
+        <v>1.016579691556889</v>
       </c>
       <c r="E11">
-        <v>1.031230314120861</v>
+        <v>1.001914750546112</v>
       </c>
       <c r="F11">
-        <v>1.050635094344496</v>
+        <v>1.019532145616493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039090853534219</v>
+        <v>1.042585624414184</v>
       </c>
       <c r="J11">
-        <v>1.038179270226948</v>
+        <v>1.022801999826729</v>
       </c>
       <c r="K11">
-        <v>1.044095265282069</v>
+        <v>1.031195569002283</v>
       </c>
       <c r="L11">
-        <v>1.034815190228491</v>
+        <v>1.016800647588894</v>
       </c>
       <c r="M11">
-        <v>1.05414877780434</v>
+        <v>1.034094880999886</v>
       </c>
       <c r="N11">
-        <v>1.039653603871497</v>
+        <v>1.024254495983512</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031383964083542</v>
+        <v>0.9920835011254142</v>
       </c>
       <c r="D12">
-        <v>1.040388022342949</v>
+        <v>1.015802324545371</v>
       </c>
       <c r="E12">
-        <v>1.031059922001665</v>
+        <v>1.001094995402206</v>
       </c>
       <c r="F12">
-        <v>1.050437665413808</v>
+        <v>1.018580789825577</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039042154546817</v>
+        <v>1.042272038602335</v>
       </c>
       <c r="J12">
-        <v>1.038063849821582</v>
+        <v>1.022226721817326</v>
       </c>
       <c r="K12">
-        <v>1.043983691287947</v>
+        <v>1.03063291241078</v>
       </c>
       <c r="L12">
-        <v>1.034690658223719</v>
+        <v>1.016201247053487</v>
       </c>
       <c r="M12">
-        <v>1.053996325055291</v>
+        <v>1.03336046383803</v>
       </c>
       <c r="N12">
-        <v>1.039538019555916</v>
+        <v>1.02367840101335</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031427356349412</v>
+        <v>0.9923108367473872</v>
       </c>
       <c r="D13">
-        <v>1.040421673560811</v>
+        <v>1.015969384685145</v>
       </c>
       <c r="E13">
-        <v>1.031096462927211</v>
+        <v>1.001271148590313</v>
       </c>
       <c r="F13">
-        <v>1.050480005428076</v>
+        <v>1.018785235409338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039052607042</v>
+        <v>1.042339502188509</v>
       </c>
       <c r="J13">
-        <v>1.038088607167385</v>
+        <v>1.02235039288687</v>
       </c>
       <c r="K13">
-        <v>1.04400762432654</v>
+        <v>1.030753872035256</v>
       </c>
       <c r="L13">
-        <v>1.034717367748464</v>
+        <v>1.01633008364569</v>
       </c>
       <c r="M13">
-        <v>1.054029023074188</v>
+        <v>1.033518320831446</v>
       </c>
       <c r="N13">
-        <v>1.039562812059991</v>
+        <v>1.023802247709999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031569558841743</v>
+        <v>0.9930538692017922</v>
       </c>
       <c r="D14">
-        <v>1.040531956571972</v>
+        <v>1.016515574515338</v>
       </c>
       <c r="E14">
-        <v>1.03121622550787</v>
+        <v>1.001847129956303</v>
       </c>
       <c r="F14">
-        <v>1.050618770680561</v>
+        <v>1.019453675460259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039086830945645</v>
+        <v>1.042559792535128</v>
       </c>
       <c r="J14">
-        <v>1.038169729216294</v>
+        <v>1.022754569427563</v>
       </c>
       <c r="K14">
-        <v>1.044086042560107</v>
+        <v>1.031149180060749</v>
       </c>
       <c r="L14">
-        <v>1.034804895017998</v>
+        <v>1.016751219232536</v>
       </c>
       <c r="M14">
-        <v>1.054136174386233</v>
+        <v>1.034034318594049</v>
       </c>
       <c r="N14">
-        <v>1.039644049311514</v>
+        <v>1.024206998227738</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031657193219898</v>
+        <v>0.9935102694451664</v>
       </c>
       <c r="D15">
-        <v>1.040599922607236</v>
+        <v>1.016851190538866</v>
       </c>
       <c r="E15">
-        <v>1.031290040811635</v>
+        <v>1.00220109991768</v>
       </c>
       <c r="F15">
-        <v>1.050704295323355</v>
+        <v>1.019864427070572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039107898676905</v>
+        <v>1.042694942175655</v>
       </c>
       <c r="J15">
-        <v>1.038219713281865</v>
+        <v>1.023002803586069</v>
       </c>
       <c r="K15">
-        <v>1.044134358486617</v>
+        <v>1.03139196183922</v>
       </c>
       <c r="L15">
-        <v>1.034858832255248</v>
+        <v>1.017009928262557</v>
       </c>
       <c r="M15">
-        <v>1.054202204396542</v>
+        <v>1.034351303807957</v>
       </c>
       <c r="N15">
-        <v>1.039694104360191</v>
+        <v>1.024455584907223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032167547806242</v>
+        <v>0.9961456078975742</v>
       </c>
       <c r="D16">
-        <v>1.040995772934236</v>
+        <v>1.018790943240931</v>
       </c>
       <c r="E16">
-        <v>1.031720067576331</v>
+        <v>1.00424766853524</v>
       </c>
       <c r="F16">
-        <v>1.051202493170377</v>
+        <v>1.022238707809727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039230235181565</v>
+        <v>1.043472839716965</v>
       </c>
       <c r="J16">
-        <v>1.038510673098774</v>
+        <v>1.024435711966476</v>
       </c>
       <c r="K16">
-        <v>1.044415574948492</v>
+        <v>1.032793305585537</v>
       </c>
       <c r="L16">
-        <v>1.03517290351124</v>
+        <v>1.018504197599078</v>
       </c>
       <c r="M16">
-        <v>1.054586687362872</v>
+        <v>1.036182184294262</v>
       </c>
       <c r="N16">
-        <v>1.039985477373413</v>
+        <v>1.025890528181887</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032487928990785</v>
+        <v>0.9977804860529117</v>
       </c>
       <c r="D17">
-        <v>1.041244305618708</v>
+        <v>1.019995875750106</v>
       </c>
       <c r="E17">
-        <v>1.031990153722888</v>
+        <v>1.005519606772052</v>
       </c>
       <c r="F17">
-        <v>1.051515356656364</v>
+        <v>1.023713810335577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039306720420974</v>
+        <v>1.043953211487612</v>
       </c>
       <c r="J17">
-        <v>1.038693210666092</v>
+        <v>1.025324224916576</v>
       </c>
       <c r="K17">
-        <v>1.044591970734285</v>
+        <v>1.033662158886224</v>
       </c>
       <c r="L17">
-        <v>1.035370028252487</v>
+        <v>1.019431544513764</v>
       </c>
       <c r="M17">
-        <v>1.054828002653222</v>
+        <v>1.037318444994013</v>
       </c>
       <c r="N17">
-        <v>1.040168274165014</v>
+        <v>1.02678030292229</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03267489116276</v>
+        <v>0.9987276748559446</v>
       </c>
       <c r="D18">
-        <v>1.041389351445764</v>
+        <v>1.020694518066449</v>
       </c>
       <c r="E18">
-        <v>1.032147812923175</v>
+        <v>1.006257338646065</v>
       </c>
       <c r="F18">
-        <v>1.051697972656831</v>
+        <v>1.024569198241029</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039351241466298</v>
+        <v>1.044230713119741</v>
       </c>
       <c r="J18">
-        <v>1.038799690734585</v>
+        <v>1.025838835424792</v>
       </c>
       <c r="K18">
-        <v>1.044694857570593</v>
+        <v>1.034165348778856</v>
       </c>
       <c r="L18">
-        <v>1.035485049161332</v>
+        <v>1.019968929387962</v>
       </c>
       <c r="M18">
-        <v>1.054968807409228</v>
+        <v>1.037976896356964</v>
       </c>
       <c r="N18">
-        <v>1.040274905447418</v>
+        <v>1.027295644236454</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032738655515528</v>
+        <v>0.999049568817032</v>
       </c>
       <c r="D19">
-        <v>1.041438821991282</v>
+        <v>1.020932036984933</v>
       </c>
       <c r="E19">
-        <v>1.032201591358165</v>
+        <v>1.006508187634517</v>
       </c>
       <c r="F19">
-        <v>1.051760261643708</v>
+        <v>1.024860023111392</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039366406448967</v>
+        <v>1.044324881397887</v>
       </c>
       <c r="J19">
-        <v>1.038835999170644</v>
+        <v>1.026013692912022</v>
       </c>
       <c r="K19">
-        <v>1.044729938968431</v>
+        <v>1.034336319660668</v>
       </c>
       <c r="L19">
-        <v>1.035524275293253</v>
+        <v>1.02015157316997</v>
       </c>
       <c r="M19">
-        <v>1.055016826556838</v>
+        <v>1.038200688228027</v>
       </c>
       <c r="N19">
-        <v>1.040311265445621</v>
+        <v>1.027470750041372</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032453545877587</v>
+        <v>0.9976057452466003</v>
       </c>
       <c r="D20">
-        <v>1.041217632030356</v>
+        <v>1.019867031590666</v>
       </c>
       <c r="E20">
-        <v>1.031961163348436</v>
+        <v>1.005383573000669</v>
       </c>
       <c r="F20">
-        <v>1.051481776107906</v>
+        <v>1.023556066911723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039298523737505</v>
+        <v>1.043901951416933</v>
       </c>
       <c r="J20">
-        <v>1.038673625172626</v>
+        <v>1.025229274412008</v>
       </c>
       <c r="K20">
-        <v>1.044573045316298</v>
+        <v>1.033569312776929</v>
       </c>
       <c r="L20">
-        <v>1.035348874342344</v>
+        <v>1.019332414735859</v>
       </c>
       <c r="M20">
-        <v>1.054802106660209</v>
+        <v>1.037196982738446</v>
       </c>
       <c r="N20">
-        <v>1.040148660857901</v>
+        <v>1.026685217577115</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03152767984707</v>
+        <v>0.9928353585821007</v>
       </c>
       <c r="D21">
-        <v>1.040499477422255</v>
+        <v>1.016354925216771</v>
       </c>
       <c r="E21">
-        <v>1.031180953071021</v>
+        <v>1.001677708159227</v>
       </c>
       <c r="F21">
-        <v>1.050577902187322</v>
+        <v>1.019257065578197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039076756762746</v>
+        <v>1.042495043283008</v>
       </c>
       <c r="J21">
-        <v>1.038145840356168</v>
+        <v>1.022635715003842</v>
       </c>
       <c r="K21">
-        <v>1.044062950370536</v>
+        <v>1.03103293471093</v>
       </c>
       <c r="L21">
-        <v>1.03477911858326</v>
+        <v>1.016627365403867</v>
       </c>
       <c r="M21">
-        <v>1.054104618794422</v>
+        <v>1.03388256604494</v>
       </c>
       <c r="N21">
-        <v>1.039620126526466</v>
+        <v>1.024087975017103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030946367447091</v>
+        <v>0.9897749971429016</v>
       </c>
       <c r="D22">
-        <v>1.040048687238867</v>
+        <v>1.014107230941623</v>
       </c>
       <c r="E22">
-        <v>1.030691521170493</v>
+        <v>0.999308133137207</v>
       </c>
       <c r="F22">
-        <v>1.05001076880516</v>
+        <v>1.016506524155927</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038936503981104</v>
+        <v>1.041585310995384</v>
       </c>
       <c r="J22">
-        <v>1.037814091422051</v>
+        <v>1.020970629800967</v>
       </c>
       <c r="K22">
-        <v>1.043742226398894</v>
+        <v>1.029404307091343</v>
       </c>
       <c r="L22">
-        <v>1.03442127346107</v>
+        <v>1.014893308516258</v>
       </c>
       <c r="M22">
-        <v>1.053666539723375</v>
+        <v>1.031757925630463</v>
       </c>
       <c r="N22">
-        <v>1.03928790647081</v>
+        <v>1.022420525202252</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031254454174401</v>
+        <v>0.991403303244095</v>
       </c>
       <c r="D23">
-        <v>1.040287588662741</v>
+        <v>1.015302614182139</v>
       </c>
       <c r="E23">
-        <v>1.030950871723801</v>
+        <v>1.000568138763831</v>
       </c>
       <c r="F23">
-        <v>1.050311305514454</v>
+        <v>1.017969269906784</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039010932019129</v>
+        <v>1.042070007125289</v>
       </c>
       <c r="J23">
-        <v>1.037989948795667</v>
+        <v>1.021856664100495</v>
       </c>
       <c r="K23">
-        <v>1.043912248447947</v>
+        <v>1.03027096227331</v>
       </c>
       <c r="L23">
-        <v>1.034610937142115</v>
+        <v>1.0158157983575</v>
       </c>
       <c r="M23">
-        <v>1.053898729609898</v>
+        <v>1.0328881942859</v>
       </c>
       <c r="N23">
-        <v>1.039464013582068</v>
+        <v>1.023307817772115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032469081850903</v>
+        <v>0.997684722863811</v>
       </c>
       <c r="D24">
-        <v>1.041229684427016</v>
+        <v>1.019925263601414</v>
       </c>
       <c r="E24">
-        <v>1.03197426247247</v>
+        <v>1.005445053667115</v>
       </c>
       <c r="F24">
-        <v>1.051496949317011</v>
+        <v>1.023627359846556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039302227748762</v>
+        <v>1.043925121943331</v>
       </c>
       <c r="J24">
-        <v>1.038682474986462</v>
+        <v>1.025272189702974</v>
       </c>
       <c r="K24">
-        <v>1.044581596903921</v>
+        <v>1.033611277039394</v>
       </c>
       <c r="L24">
-        <v>1.035358432756107</v>
+        <v>1.019377218080154</v>
       </c>
       <c r="M24">
-        <v>1.054813807791654</v>
+        <v>1.037251879604105</v>
       </c>
       <c r="N24">
-        <v>1.040157523239487</v>
+        <v>1.026728193812716</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03388208422228</v>
+        <v>1.004724051867248</v>
       </c>
       <c r="D25">
-        <v>1.04232610142354</v>
+        <v>1.025126681262108</v>
       </c>
       <c r="E25">
-        <v>1.033166649616652</v>
+        <v>1.010941828264477</v>
       </c>
       <c r="F25">
-        <v>1.052877837308705</v>
+        <v>1.029997633154248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039636668088423</v>
+        <v>1.045972717490136</v>
       </c>
       <c r="J25">
-        <v>1.039486461004465</v>
+        <v>1.029093472055675</v>
       </c>
       <c r="K25">
-        <v>1.045358261285654</v>
+        <v>1.037347069325753</v>
       </c>
       <c r="L25">
-        <v>1.036227477834607</v>
+        <v>1.023372628253901</v>
       </c>
       <c r="M25">
-        <v>1.055877645603506</v>
+        <v>1.042147461235296</v>
       </c>
       <c r="N25">
-        <v>1.040962651009855</v>
+        <v>1.030554902824666</v>
       </c>
     </row>
   </sheetData>
